--- a/doc/E2.xlsx
+++ b/doc/E2.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1400" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="4080" yWindow="1400" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name="Common" sheetId="3" r:id="rId2"/>
-    <sheet name="Carrefour" sheetId="5" r:id="rId3"/>
-    <sheet name="Tesco" sheetId="6" r:id="rId4"/>
-    <sheet name="YongHui" sheetId="7" r:id="rId5"/>
-    <sheet name="Metro" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Carrefour" sheetId="5" r:id="rId5"/>
+    <sheet name="Tesco" sheetId="6" r:id="rId6"/>
+    <sheet name="YongHui" sheetId="7" r:id="rId7"/>
+    <sheet name="Metro" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -29,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
-  <si>
-    <t>Login validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +45,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Convert Excel to txt file - Bill of lading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Qty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Other customer configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total Effort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +57,6 @@
   </si>
   <si>
     <t>Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bill of lading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Merge Order and Bill of lading to one text file (From DB or txt file)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The effort will be increased for new cumstomer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +122,75 @@
   </si>
   <si>
     <t>Effort</t>
+  </si>
+  <si>
+    <t>System customize for each retailer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Effort Summary</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>Javascript Pagination</t>
+  </si>
+  <si>
+    <t>Receiving Note</t>
+  </si>
+  <si>
+    <t>Convert Excel to txt file - Receiving Note</t>
+  </si>
+  <si>
+    <t>Order Process</t>
+  </si>
+  <si>
+    <t>Receiving Note Process</t>
+  </si>
+  <si>
+    <t>YongHui</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t>Excel Process</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Login Validation</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
+    <t>File Merge Process</t>
+  </si>
+  <si>
+    <t>1. Matching 2. Merge File</t>
   </si>
 </sst>
 </file>
@@ -149,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,8 +249,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +279,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,8 +293,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -257,8 +347,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -268,9 +360,17 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="33" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="百分比" xfId="31" builtinId="5"/>
+    <cellStyle name="标题 1" xfId="32" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -303,7 +403,7 @@
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="146">
     <dxf>
       <font>
         <b val="0"/>
@@ -357,33 +457,283 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -410,137 +760,79 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -720,32 +1012,6 @@
         <name val="Arial Unicode MS"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -838,84 +1104,6 @@
         <name val="Arial Unicode MS"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1168,33 +1356,1105 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1219,92 +2479,188 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:C6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:C6" totalsRowShown="0" headerRowDxfId="145">
   <autoFilter ref="A3:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Phase" dataDxfId="2"/>
-    <tableColumn id="2" name="Effort" dataDxfId="1"/>
+    <tableColumn id="1" name="Phase" dataDxfId="144"/>
+    <tableColumn id="2" name="Effort" dataDxfId="143"/>
     <tableColumn id="3" name="Distribution"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:E6" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格1_56" displayName="表格1_56" ref="A1:E6" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120" totalsRowDxfId="119">
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="2" name="Qty" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" name="Qty" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111">
+      <calculatedColumnFormula>表格1_56[[#This Row],[Qty]]*表格1_56[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="110" totalsRowDxfId="109"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表格1_567" displayName="表格1_567" ref="A1:E6" totalsRowCount="1" headerRowDxfId="108" dataDxfId="107" totalsRowDxfId="106">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="2" name="Qty" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98">
+      <calculatedColumnFormula>表格1_567[[#This Row],[Qty]]*表格1_567[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="97" totalsRowDxfId="96"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表格1_568" displayName="表格1_568" ref="A1:E6" totalsRowCount="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="2" name="Qty" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
+      <calculatedColumnFormula>表格1_568[[#This Row],[Qty]]*表格1_568[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="84" totalsRowDxfId="83"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:E6" totalsRowCount="1" headerRowDxfId="142" dataDxfId="141" totalsRowDxfId="140">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="139" totalsRowDxfId="82"/>
+    <tableColumn id="2" name="Qty" dataDxfId="138" totalsRowDxfId="81"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="80"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="79">
       <calculatedColumnFormula>表格3[[#This Row],[Qty]]*表格3[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Remark" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="5" name="Remark" dataDxfId="135" totalsRowDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格1_5" displayName="表格1_5" ref="A1:E6" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表格3_3" displayName="表格3_3" ref="A4:E7" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" name="Qty" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
-      <calculatedColumnFormula>表格1_5[[#This Row],[Qty]]*表格1_5[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    <tableColumn id="1" name="Function" totalsRowLabel="Total" dataDxfId="74" totalsRowDxfId="69"/>
+    <tableColumn id="2" name="Qty" dataDxfId="73" totalsRowDxfId="68"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="67"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="66">
+      <calculatedColumnFormula>表格3_3[[#This Row],[Qty]]*表格3_3[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Remark" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="5" name="Remark" dataDxfId="70" totalsRowDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格1_56" displayName="表格1_56" ref="A1:E6" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表格1_59" displayName="表格1_59" ref="A11:E17" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63" totalsRowDxfId="62">
+  <autoFilter ref="A11:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" name="Qty" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
-      <calculatedColumnFormula>表格1_56[[#This Row],[Qty]]*表格1_56[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    <tableColumn id="1" name="Function" totalsRowLabel="Sub Total" dataDxfId="61" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="Qty" dataDxfId="60" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="22">
+      <calculatedColumnFormula>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Remark" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="Remark" dataDxfId="57" totalsRowDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表格1_567" displayName="表格1_567" ref="A1:E6" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表格1_5610" displayName="表格1_5610" ref="A21:E27" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
+  <autoFilter ref="A21:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" name="Qty" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
-      <calculatedColumnFormula>表格1_567[[#This Row],[Qty]]*表格1_567[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    <tableColumn id="1" name="Function" totalsRowLabel="Sub Total" dataDxfId="36" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Qty" dataDxfId="53" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="17"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="16">
+      <calculatedColumnFormula>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Remark" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="Remark" dataDxfId="51" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表格1_568" displayName="表格1_568" ref="A1:E6" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表格1_56711" displayName="表格1_56711" ref="A31:E37" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
+  <autoFilter ref="A31:E36"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="Sub Total" dataDxfId="35" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Qty" dataDxfId="47" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="6">
+      <calculatedColumnFormula>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="44" totalsRowDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表格1_56812" displayName="表格1_56812" ref="A41:E47" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+  <autoFilter ref="A41:E46"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="Sub Total" dataDxfId="34" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Qty" dataDxfId="40" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="11">
+      <calculatedColumnFormula>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="37" totalsRowDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表格1_5681213" displayName="表格1_5681213" ref="A51:E55" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31">
+  <autoFilter ref="A51:E54"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Function" totalsRowLabel="Sub Total" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Qty" dataDxfId="29" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="1">
+      <calculatedColumnFormula>表格1_5681213[[#This Row],[Qty]]*表格1_5681213[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Remark" dataDxfId="26" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格1_5" displayName="表格1_5" ref="A1:E6" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133" totalsRowDxfId="132">
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Qty" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
-      <calculatedColumnFormula>表格1_568[[#This Row],[Qty]]*表格1_568[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
+    <tableColumn id="1" name="Function" totalsRowLabel="汇总" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="2" name="Qty" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="3" name="Effort (MD)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="6" name="Total Effort" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124">
+      <calculatedColumnFormula>表格1_5[[#This Row],[Qty]]*表格1_5[[#This Row],[Effort (MD)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Remark" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="Remark" dataDxfId="123" totalsRowDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1634,24 +2990,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="12.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1668,18 +3024,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <f>表格3[[#Totals],[Total Effort]]+表格1_5[[#Totals],[Total Effort]]+表格1_56[[#Totals],[Total Effort]]+表格1_567[[#Totals],[Total Effort]]+表格1_568[[#Totals],[Total Effort]]</f>
@@ -1692,7 +3048,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1704,7 +3060,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>ROUNDUP(SUM(B4:B5)*110%,0)</f>
@@ -1713,7 +3069,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
         <v>58</v>
@@ -1725,7 +3081,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1753,7 +3109,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
@@ -1767,24 +3123,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1797,12 +3153,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1817,7 +3173,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1830,12 +3186,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1850,7 +3206,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>SUBTOTAL(109,表格3[Effort (MD)])</f>
@@ -1878,10 +3234,728 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1"/>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <f>表格3_3[[#This Row],[Qty]]*表格3_3[[#This Row],[Effort (MD)]]</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <f>表格3_3[[#This Row],[Qty]]*表格3_3[[#This Row],[Effort (MD)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUBTOTAL(109,表格3_3[Effort (MD)])</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUBTOTAL(109,表格3_3[Total Effort])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f>表格1_59[[#This Row],[Qty]]*表格1_59[[#This Row],[Effort (MD)]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUBTOTAL(109,表格1_59[Effort (MD)])</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUBTOTAL(109,表格1_59[Total Effort])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <f>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f>表格1_5610[[#This Row],[Qty]]*表格1_5610[[#This Row],[Effort (MD)]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1">
+        <f>SUBTOTAL(109,表格1_5610[Effort (MD)])</f>
+        <v>6.5</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUBTOTAL(109,表格1_5610[Total Effort])</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <f>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <f>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="1">
+        <f>表格1_56711[[#This Row],[Qty]]*表格1_56711[[#This Row],[Effort (MD)]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <f>SUBTOTAL(109,表格1_56711[Effort (MD)])</f>
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUBTOTAL(109,表格1_56711[Total Effort])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="1">
+        <f>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <f>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="1">
+        <f>表格1_56812[[#This Row],[Qty]]*表格1_56812[[#This Row],[Effort (MD)]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="1">
+        <f>SUBTOTAL(109,表格1_56812[Effort (MD)])</f>
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUBTOTAL(109,表格1_56812[Total Effort])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="1">
+        <f>表格1_5681213[[#This Row],[Qty]]*表格1_5681213[[#This Row],[Effort (MD)]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <f>表格1_5681213[[#This Row],[Qty]]*表格1_5681213[[#This Row],[Effort (MD)]]</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f>表格1_5681213[[#This Row],[Qty]]*表格1_5681213[[#This Row],[Effort (MD)]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1">
+        <f>SUBTOTAL(109,表格1_5681213[Effort (MD)])</f>
+        <v>4.5</v>
+      </c>
+      <c r="D55" s="1">
+        <f>SUBTOTAL(109,表格1_5681213[Total Effort])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <f>SUM(D7,D17,D27,D37,D47,D55)</f>
+        <v>39.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A40:E40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
@@ -1892,24 +3966,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1924,7 +3998,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1939,7 +4013,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1954,7 +4028,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1969,7 +4043,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>SUBTOTAL(109,表格1_5[Effort (MD)])</f>
@@ -1994,40 +4068,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11" style="1"/>
+    <col min="2" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2040,12 +4116,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2058,12 +4134,12 @@
         <v>2.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2078,7 +4154,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2093,7 +4169,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>SUBTOTAL(109,表格1_56[Effort (MD)])</f>
@@ -2118,12 +4194,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
@@ -2134,24 +4210,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2164,12 +4240,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2182,12 +4258,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2202,7 +4278,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2217,7 +4293,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>SUBTOTAL(109,表格1_567[Effort (MD)])</f>
@@ -2243,12 +4319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
@@ -2259,24 +4335,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2289,12 +4365,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2307,12 +4383,12 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2327,7 +4403,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2342,7 +4418,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f>SUBTOTAL(109,表格1_568[Effort (MD)])</f>
